--- a/Files/CommonSenseQA Files/COMSEN_final_.xlsx
+++ b/Files/CommonSenseQA Files/COMSEN_final_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/ComSen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{B0ADF604-0ECC-4E68-BD96-E7C0600A9127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{153018AD-5B51-4522-96C9-D6538A5F7269}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{B0ADF604-0ECC-4E68-BD96-E7C0600A9127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D553C36A-9073-4C72-AB3E-280F59975FEC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5140" yWindow="3180" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{979413CC-C29A-4C59-8667-66EF1B25C33E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{979413CC-C29A-4C59-8667-66EF1B25C33E}"/>
   </bookViews>
   <sheets>
     <sheet name="ComSen_final" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="508">
   <si>
     <t>Question</t>
   </si>
@@ -1569,6 +1569,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Number of Words</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1630,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1674,8 +1680,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{D3E665DF-470A-4EA1-8CE3-6308B72A5FDB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
-    <queryTableFields count="11">
+  <queryTableRefresh nextId="13" unboundColumnsRight="1">
+    <queryTableFields count="12">
       <queryTableField id="1" name="Question" tableColumnId="1"/>
       <queryTableField id="2" name="A" tableColumnId="2"/>
       <queryTableField id="3" name="B" tableColumnId="3"/>
@@ -1687,26 +1693,30 @@
       <queryTableField id="9" name="GPT-4" tableColumnId="9"/>
       <queryTableField id="10" name="Eval GPT-3.5" tableColumnId="10"/>
       <queryTableField id="11" name="Eval GPT-4" tableColumnId="11"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{842720A0-7556-470C-9809-C1AFAD30BF60}" name="ComSen_final" displayName="ComSen_final" ref="A1:K91" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K91" xr:uid="{842720A0-7556-470C-9809-C1AFAD30BF60}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5E065628-2DCD-4A3C-A623-741E18446C52}" uniqueName="1" name="Question" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B3F23ED3-80ED-407C-B2A1-627BF32965F9}" uniqueName="2" name="A" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{DB0E9983-1619-4DA9-AB51-1EC9E5F6BFDA}" uniqueName="3" name="B" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5F135E28-C149-4E4E-B8E2-B1FD960321B7}" uniqueName="4" name="C" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E976FE8C-D736-482D-9330-30F206242E4A}" uniqueName="5" name="D" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3319C909-ABB0-4481-B754-2C5CF89D433C}" uniqueName="6" name="E" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6BEC0153-0C87-459E-8DDB-7387C20244B1}" uniqueName="7" name="Correct Option" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{20C3D40D-C280-4985-BEC5-F6E81B1961FB}" uniqueName="8" name="GPT-3.5" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{EC3CD2A1-80D3-4C80-ADB6-518FB77F9CE2}" uniqueName="9" name="GPT-4" queryTableFieldId="9" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{842720A0-7556-470C-9809-C1AFAD30BF60}" name="ComSen_final" displayName="ComSen_final" ref="A1:L91" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L91" xr:uid="{842720A0-7556-470C-9809-C1AFAD30BF60}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5E065628-2DCD-4A3C-A623-741E18446C52}" uniqueName="1" name="Question" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B3F23ED3-80ED-407C-B2A1-627BF32965F9}" uniqueName="2" name="A" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DB0E9983-1619-4DA9-AB51-1EC9E5F6BFDA}" uniqueName="3" name="B" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5F135E28-C149-4E4E-B8E2-B1FD960321B7}" uniqueName="4" name="C" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E976FE8C-D736-482D-9330-30F206242E4A}" uniqueName="5" name="D" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3319C909-ABB0-4481-B754-2C5CF89D433C}" uniqueName="6" name="E" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6BEC0153-0C87-459E-8DDB-7387C20244B1}" uniqueName="7" name="Correct Option" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{20C3D40D-C280-4985-BEC5-F6E81B1961FB}" uniqueName="8" name="GPT-3.5" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{EC3CD2A1-80D3-4C80-ADB6-518FB77F9CE2}" uniqueName="9" name="GPT-4" queryTableFieldId="9" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{EAE8E491-08FB-4A83-B402-564F02039E77}" uniqueName="10" name="Eval GPT-3.5" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{8D22E630-B72E-47AE-9611-48EACCAF1843}" uniqueName="11" name="Eval GPT-4" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{A10B9C49-4C64-4DE1-84CB-825CC5953487}" uniqueName="12" name="Number of Words" queryTableFieldId="12" dataDxfId="0">
+      <calculatedColumnFormula>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2029,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1B3887-69EB-4264-8163-16392179F4D9}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2048,9 +2058,10 @@
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2084,8 +2095,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2119,8 +2133,12 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2154,8 +2172,12 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2189,8 +2211,12 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2224,8 +2250,12 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2259,8 +2289,12 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2294,8 +2328,12 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2329,8 +2367,12 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2364,8 +2406,12 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2399,8 +2445,12 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2434,8 +2484,12 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2469,8 +2523,12 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2504,8 +2562,12 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2539,8 +2601,12 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2574,8 +2640,12 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -2609,8 +2679,12 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2644,8 +2718,12 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -2679,8 +2757,12 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2714,8 +2796,12 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -2749,8 +2835,12 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -2784,8 +2874,12 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -2819,8 +2913,12 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2854,8 +2952,12 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -2889,8 +2991,12 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -2924,8 +3030,12 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -2959,8 +3069,12 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -2994,8 +3108,12 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -3029,8 +3147,12 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -3064,8 +3186,12 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -3099,8 +3225,12 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -3134,8 +3264,12 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -3169,8 +3303,12 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -3204,8 +3342,12 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -3239,8 +3381,12 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>205</v>
       </c>
@@ -3274,8 +3420,12 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -3309,8 +3459,12 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3344,8 +3498,12 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -3379,8 +3537,12 @@
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -3414,8 +3576,12 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>232</v>
       </c>
@@ -3449,8 +3615,12 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>237</v>
       </c>
@@ -3484,8 +3654,12 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -3519,8 +3693,12 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -3554,8 +3732,12 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>255</v>
       </c>
@@ -3589,8 +3771,12 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>259</v>
       </c>
@@ -3624,8 +3810,12 @@
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>264</v>
       </c>
@@ -3659,8 +3849,12 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>270</v>
       </c>
@@ -3694,8 +3888,12 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>275</v>
       </c>
@@ -3729,8 +3927,12 @@
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>281</v>
       </c>
@@ -3764,8 +3966,12 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>287</v>
       </c>
@@ -3799,8 +4005,12 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>293</v>
       </c>
@@ -3834,8 +4044,12 @@
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>299</v>
       </c>
@@ -3869,8 +4083,12 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>305</v>
       </c>
@@ -3904,8 +4122,12 @@
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L53">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>308</v>
       </c>
@@ -3939,8 +4161,12 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L54">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -3974,8 +4200,12 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L55">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>318</v>
       </c>
@@ -4009,8 +4239,12 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L56">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>322</v>
       </c>
@@ -4044,8 +4278,12 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L57">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>327</v>
       </c>
@@ -4079,8 +4317,12 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L58">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>331</v>
       </c>
@@ -4114,8 +4356,12 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L59">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>337</v>
       </c>
@@ -4149,8 +4395,12 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L60">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>343</v>
       </c>
@@ -4184,8 +4434,12 @@
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L61">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>348</v>
       </c>
@@ -4219,8 +4473,12 @@
       <c r="K62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L62">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>353</v>
       </c>
@@ -4254,8 +4512,12 @@
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L63">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>359</v>
       </c>
@@ -4289,8 +4551,12 @@
       <c r="K64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L64">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -4324,8 +4590,12 @@
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L65">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>371</v>
       </c>
@@ -4359,8 +4629,12 @@
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L66">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>374</v>
       </c>
@@ -4394,8 +4668,12 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L67">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>380</v>
       </c>
@@ -4429,8 +4707,12 @@
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L68">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>384</v>
       </c>
@@ -4464,8 +4746,12 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L69">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>390</v>
       </c>
@@ -4499,8 +4785,12 @@
       <c r="K70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L70">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>396</v>
       </c>
@@ -4534,8 +4824,12 @@
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L71">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>400</v>
       </c>
@@ -4569,8 +4863,12 @@
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L72">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>406</v>
       </c>
@@ -4604,8 +4902,12 @@
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L73">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>412</v>
       </c>
@@ -4639,8 +4941,12 @@
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L74">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>417</v>
       </c>
@@ -4674,8 +4980,12 @@
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L75">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>423</v>
       </c>
@@ -4709,8 +5019,12 @@
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L76">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>429</v>
       </c>
@@ -4744,8 +5058,12 @@
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L77">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>435</v>
       </c>
@@ -4779,8 +5097,12 @@
       <c r="K78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L78">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>440</v>
       </c>
@@ -4814,8 +5136,12 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L79">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>443</v>
       </c>
@@ -4849,8 +5175,12 @@
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L80">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>449</v>
       </c>
@@ -4884,8 +5214,12 @@
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L81">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>454</v>
       </c>
@@ -4919,8 +5253,12 @@
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L82">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>459</v>
       </c>
@@ -4954,8 +5292,12 @@
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L83">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>464</v>
       </c>
@@ -4989,8 +5331,12 @@
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L84">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>469</v>
       </c>
@@ -5024,8 +5370,12 @@
       <c r="K85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L85">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>474</v>
       </c>
@@ -5059,8 +5409,12 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L86">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>479</v>
       </c>
@@ -5094,8 +5448,12 @@
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L87">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>485</v>
       </c>
@@ -5129,8 +5487,12 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L88">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>491</v>
       </c>
@@ -5164,8 +5526,12 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L89">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>497</v>
       </c>
@@ -5199,8 +5565,12 @@
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L90">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>499</v>
       </c>
@@ -5233,6 +5603,10 @@
       </c>
       <c r="K91">
         <v>1</v>
+      </c>
+      <c r="L91">
+        <f>COUNTA(_xlfn.TEXTSPLIT(TRIM(ComSen_final[[#This Row],[Question]])," "))</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5247,7 +5621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD90F9-37B6-434F-BAF2-3FA9BD1AD79C}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
